--- a/solari/a_var.xlsx
+++ b/solari/a_var.xlsx
@@ -116,7 +116,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -126,6 +126,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,75 +379,75 @@
                   <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.34</c:v>
+                  <c:v>-3.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.83</c:v>
+                  <c:v>-2.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.25</c:v>
+                  <c:v>-2.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.85</c:v>
+                  <c:v>-1.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.8</c:v>
+                  <c:v>-1.71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.79</c:v>
+                  <c:v>-1.69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.8</c:v>
+                  <c:v>-1.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.8</c:v>
+                  <c:v>-1.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>-1.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>-1.77</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.81</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.83</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.84</c:v>
+                  <c:v>-1.78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.85</c:v>
+                  <c:v>-1.78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.87</c:v>
+                  <c:v>-1.78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.87</c:v>
+                  <c:v>-1.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.89</c:v>
+                  <c:v>-1.77</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.88</c:v>
+                  <c:v>-1.77</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.88</c:v>
+                  <c:v>-1.77</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.89</c:v>
+                  <c:v>-1.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17853203"/>
-        <c:axId val="60411325"/>
+        <c:axId val="76655204"/>
+        <c:axId val="78230080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17853203"/>
+        <c:axId val="76655204"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21000"/>
@@ -501,12 +505,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60411325"/>
+        <c:crossAx val="78230080"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60411325"/>
+        <c:axId val="78230080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -571,7 +575,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17853203"/>
+        <c:crossAx val="76655204"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -609,9 +613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -620,7 +624,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3822840" y="475920"/>
-        <a:ext cx="6906240" cy="3884400"/>
+        <a:ext cx="6905880" cy="3884040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -641,7 +645,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q20" activeCellId="0" sqref="Q20"/>
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -655,171 +659,171 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>-4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>-3.34</v>
+      <c r="B3" s="3" t="n">
+        <v>-3.33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>-2.83</v>
+      <c r="B4" s="3" t="n">
+        <v>-2.79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="0" t="n">
         <v>3000</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>-2.25</v>
+      <c r="B5" s="3" t="n">
+        <v>-2.14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="0" t="n">
         <v>4000</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>-1.85</v>
+      <c r="B6" s="3" t="n">
+        <v>-1.74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>-1.8</v>
+      <c r="B7" s="3" t="n">
+        <v>-1.71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="0" t="n">
         <v>6000</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>-1.79</v>
+      <c r="B8" s="3" t="n">
+        <v>-1.69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="0" t="n">
         <v>7000</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>-1.8</v>
+      <c r="B9" s="3" t="n">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="0" t="n">
         <v>8000</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>-1.8</v>
+      <c r="B10" s="3" t="n">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="0" t="n">
         <v>9000</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>-1.73</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11000</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>-1.76</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="B14" s="3" t="n">
         <v>-1.77</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>11000</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>-1.81</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>12000</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>-1.83</v>
-      </c>
-    </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="0" t="n">
         <v>13000</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>-1.84</v>
+      <c r="B15" s="3" t="n">
+        <v>-1.78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="0" t="n">
         <v>14000</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>-1.85</v>
+      <c r="B16" s="3" t="n">
+        <v>-1.78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>-1.87</v>
+      <c r="B17" s="3" t="n">
+        <v>-1.78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="0" t="n">
         <v>16000</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>-1.87</v>
+      <c r="B18" s="3" t="n">
+        <v>-1.78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="0" t="n">
         <v>17000</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>-1.89</v>
+      <c r="B19" s="3" t="n">
+        <v>-1.77</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="0" t="n">
         <v>18000</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>-1.88</v>
+      <c r="B20" s="3" t="n">
+        <v>-1.77</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="0" t="n">
         <v>19000</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>-1.88</v>
+      <c r="B21" s="3" t="n">
+        <v>-1.77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="0" t="n">
         <v>20000</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>-1.89</v>
+      <c r="B22" s="3" t="n">
+        <v>-1.76</v>
       </c>
     </row>
   </sheetData>
